--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcmac\Desktop\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0711F496-7AFF-4138-A083-527D362B5C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53320C8-8D46-43F9-89D5-B6DF7C943917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E690014-ECB0-4FE1-9E63-8E2042EBCF79}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{1E690014-ECB0-4FE1-9E63-8E2042EBCF79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="81">
   <si>
     <t>1:41s</t>
   </si>
@@ -161,9 +166,6 @@
     <t>1:20s</t>
   </si>
   <si>
-    <t>0.56s</t>
-  </si>
-  <si>
     <t>0:40s</t>
   </si>
   <si>
@@ -180,13 +182,115 @@
   </si>
   <si>
     <t>2:28s</t>
+  </si>
+  <si>
+    <t>01:02s</t>
+  </si>
+  <si>
+    <t>1:34s</t>
+  </si>
+  <si>
+    <t>0:56s</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>T3</t>
+  </si>
+  <si>
+    <t>T4</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Carimbo de data/hora</t>
+  </si>
+  <si>
+    <t>The interface layout was clear and intuitive</t>
+  </si>
+  <si>
+    <t>The system is pleasant to use</t>
+  </si>
+  <si>
+    <t>Nesting and un‑nesting blocks was easy to perform</t>
+  </si>
+  <si>
+    <t>Error messages clearly explained what went wrong</t>
+  </si>
+  <si>
+    <t>Feedback tips helped me correct my mistakes</t>
+  </si>
+  <si>
+    <t>I could complete tasks without seeking external help</t>
+  </si>
+  <si>
+    <t>The system responded quickly to my actions</t>
+  </si>
+  <si>
+    <t>I felt confident using the tool to build proofs</t>
+  </si>
+  <si>
+    <t>It is easy to learn to use the system</t>
+  </si>
+  <si>
+    <t>The system may be useful.</t>
+  </si>
+  <si>
+    <t>Overall, I am satisfied with the usability of the system</t>
+  </si>
+  <si>
+    <t>P1</t>
+  </si>
+  <si>
+    <t>P2</t>
+  </si>
+  <si>
+    <t>P3</t>
+  </si>
+  <si>
+    <t>P4</t>
+  </si>
+  <si>
+    <t>P5</t>
+  </si>
+  <si>
+    <t>P6</t>
+  </si>
+  <si>
+    <t>P7</t>
+  </si>
+  <si>
+    <t>P8</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
+    <t>P10</t>
+  </si>
+  <si>
+    <t>P11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,18 +298,405 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF434343"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5B3F86"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="25">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF5B3F86"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF5B3F86"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF442F65"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF442F65"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -215,15 +706,97 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="45" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="45" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="22" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -240,6 +813,1748 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$18:$N$18</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$23:$N$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000017-A5E4-4B2C-89D2-D7F0A3A8007E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFC000"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$18:$N$18</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$22:$N$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000016-A5E4-4B2C-89D2-D7F0A3A8007E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$18:$N$18</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$21:$N$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000015-A5E4-4B2C-89D2-D7F0A3A8007E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$18:$N$18</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$20:$N$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000014-A5E4-4B2C-89D2-D7F0A3A8007E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$D$18:$N$18</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>P1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>P5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>P6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>P7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>P8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>P9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>P10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>P11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$19:$N$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A5E4-4B2C-89D2-D7F0A3A8007E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1136476112"/>
+        <c:axId val="1136482832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1136476112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT"/>
+                  <a:t>Evaluation</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136482832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1136482832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>No. of Users</a:t>
+                </a:r>
+                <a:endParaRPr lang="pt-PT"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-PT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-PT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1136476112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-PT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-PT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5B287A-367D-D0E8-6751-8BB6F5256C6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Daniel Macau" refreshedDate="45919.71517476852" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="12" xr:uid="{3783E414-8B05-4E32-B443-BD89FF1A4D6D}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C4:N16" sheet="Sheet2"/>
+  </cacheSource>
+  <cacheFields count="12">
+    <cacheField name="Carimbo de data/hora" numFmtId="22">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2025-07-17T17:34:53" maxDate="2025-09-18T23:51:18"/>
+    </cacheField>
+    <cacheField name="The interface layout was clear and intuitive" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="5"/>
+    </cacheField>
+    <cacheField name="The system is pleasant to use" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Nesting and un‑nesting blocks was easy to perform" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Error messages clearly explained what went wrong" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Feedback tips helped me correct my mistakes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="5"/>
+    </cacheField>
+    <cacheField name="I could complete tasks without seeking external help" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="5"/>
+    </cacheField>
+    <cacheField name="The system responded quickly to my actions" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="5"/>
+    </cacheField>
+    <cacheField name="I felt confident using the tool to build proofs" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="5"/>
+    </cacheField>
+    <cacheField name="It is easy to learn to use the system" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="5"/>
+    </cacheField>
+    <cacheField name="The system may be useful." numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="5"/>
+    </cacheField>
+    <cacheField name="Overall, I am satisfied with the usability of the system" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="4" maxValue="5"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="12">
+  <r>
+    <d v="2025-07-17T17:34:53"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <d v="2025-07-21T14:36:13"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <d v="2025-07-22T10:59:00"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <d v="2025-07-22T11:38:48"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <d v="2025-08-04T12:36:56"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <d v="2025-08-04T23:27:31"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <d v="2025-08-05T12:40:55"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <d v="2025-08-06T09:56:32"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <d v="2025-08-06T20:07:37"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <d v="2025-08-14T22:23:50"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <d v="2025-08-29T16:27:39"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <d v="2025-09-18T23:51:18"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F9E6230-5F57-4B38-B722-F107B64AEB27}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="12">
+    <pivotField numFmtId="22" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,237 +2874,1698 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A53E6D6-4DCB-40B5-8D29-E7E2A94E5120}">
-  <dimension ref="B3:H13"/>
+  <dimension ref="B3:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="10" max="16" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3">
+        <v>4</v>
+      </c>
+      <c r="F3" s="3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="J4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1.1689814814814816E-3</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1.712962962962963E-3</v>
+      </c>
+      <c r="M4" s="7">
+        <v>8.4490740740740739E-4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>1.3310185185185185E-3</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1.0416666666666667E-3</v>
+      </c>
+      <c r="P4" s="7">
+        <f>SUM(K4:O4)</f>
+        <v>6.099537037037037E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="J5" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="8">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="L5" s="8">
+        <v>2.0138888888888888E-3</v>
+      </c>
+      <c r="M5" s="8">
+        <v>9.4907407407407408E-4</v>
+      </c>
+      <c r="N5" s="8">
+        <v>3.0092592592592595E-4</v>
+      </c>
+      <c r="O5" s="8">
+        <v>2.6620370370370372E-4</v>
+      </c>
+      <c r="P5" s="8">
+        <f t="shared" ref="P5:P14" si="0">SUM(K5:O5)</f>
+        <v>4.2245370370370371E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="J6" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="7">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="L6" s="7">
+        <v>9.3749999999999997E-4</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1.3310185185185185E-3</v>
+      </c>
+      <c r="N6" s="7">
+        <v>7.7546296296296293E-4</v>
+      </c>
+      <c r="O6" s="7">
+        <v>8.6805555555555551E-4</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="0"/>
+        <v>5.9953703703703697E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="J7" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K7" s="8">
+        <v>9.6064814814814819E-4</v>
+      </c>
+      <c r="L7" s="8">
+        <v>5.9027777777777778E-4</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1.8981481481481482E-3</v>
+      </c>
+      <c r="N7" s="8">
+        <v>5.2083333333333333E-4</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1.7361111111111112E-4</v>
+      </c>
+      <c r="P7" s="8">
+        <f t="shared" si="0"/>
+        <v>4.1435185185185186E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="J8" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7">
+        <v>6.3657407407407413E-4</v>
+      </c>
+      <c r="L8" s="7">
+        <v>4.1666666666666669E-4</v>
+      </c>
+      <c r="M8" s="7">
+        <v>8.1018518518518516E-4</v>
+      </c>
+      <c r="N8" s="7">
+        <v>4.2824074074074075E-4</v>
+      </c>
+      <c r="O8" s="7">
+        <v>2.3148148148148149E-4</v>
+      </c>
+      <c r="P8" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5231481481481481E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J9" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1.2268518518518518E-3</v>
+      </c>
+      <c r="L9" s="8">
+        <v>6.018518518518519E-4</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1.0648148148148149E-3</v>
+      </c>
+      <c r="N9" s="8">
+        <v>4.7453703703703704E-4</v>
+      </c>
+      <c r="O9" s="8">
+        <v>3.0092592592592595E-4</v>
+      </c>
+      <c r="P9" s="8">
+        <f t="shared" si="0"/>
+        <v>3.6689814814814814E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K10" s="7">
+        <v>7.407407407407407E-4</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1.3425925925925925E-3</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1.4583333333333334E-3</v>
+      </c>
+      <c r="N10" s="7">
+        <v>8.7962962962962962E-4</v>
+      </c>
+      <c r="O10" s="7">
+        <v>5.3240740740740744E-4</v>
+      </c>
+      <c r="P10" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9537037037037041E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J11" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1.1805555555555556E-3</v>
+      </c>
+      <c r="L11" s="8">
+        <v>8.564814814814815E-4</v>
+      </c>
+      <c r="M11" s="8">
+        <v>9.6064814814814819E-4</v>
+      </c>
+      <c r="N11" s="8">
+        <v>6.134259259259259E-4</v>
+      </c>
+      <c r="O11" s="8">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="P11" s="8">
+        <f t="shared" si="0"/>
+        <v>3.9583333333333328E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K12" s="7">
+        <v>2.1064814814814813E-3</v>
+      </c>
+      <c r="L12" s="7">
+        <v>8.2175925925925927E-4</v>
+      </c>
+      <c r="M12" s="7">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="N12" s="7">
+        <v>6.4814814814814813E-4</v>
+      </c>
+      <c r="O12" s="7">
+        <v>4.6296296296296298E-4</v>
+      </c>
+      <c r="P12" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9652777777777777E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1.2847222222222223E-3</v>
+      </c>
+      <c r="L13" s="8">
+        <v>1.0532407407407407E-3</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1.6319444444444445E-3</v>
+      </c>
+      <c r="N13" s="8">
+        <v>7.407407407407407E-4</v>
+      </c>
+      <c r="O13" s="8">
+        <v>4.0509259259259258E-4</v>
+      </c>
+      <c r="P13" s="8">
+        <f t="shared" si="0"/>
+        <v>5.1157407407407401E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="7">
+        <v>7.1759259259259259E-4</v>
+      </c>
+      <c r="L14" s="7">
+        <v>6.018518518518519E-4</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1.0879629629629629E-3</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="O14" s="7">
+        <v>3.0092592592592595E-4</v>
+      </c>
+      <c r="P14" s="7">
+        <f t="shared" si="0"/>
+        <v>3.0555555555555557E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J15" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="10">
+        <f>AVERAGE(K4:K14)</f>
+        <v>1.1637205387205387E-3</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" ref="L15:P15" si="1">AVERAGE(L4:L14)</f>
+        <v>9.953703703703702E-4</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="1"/>
+        <v>1.1784511784511784E-3</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" si="1"/>
+        <v>6.4183501683501678E-4</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="1"/>
+        <v>4.4823232323232319E-4</v>
+      </c>
+      <c r="P15" s="10">
+        <f t="shared" si="1"/>
+        <v>4.4276094276094269E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I18" s="6">
+        <v>1.1689814814814816E-3</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1.712962962962963E-3</v>
+      </c>
+      <c r="K18" s="6">
+        <v>8.4490740740740739E-4</v>
+      </c>
+      <c r="L18" s="6">
+        <v>1.3310185185185185E-3</v>
+      </c>
+      <c r="M18" s="6">
+        <v>1.0416666666666667E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I19" s="6">
+        <v>6.9444444444444447E-4</v>
+      </c>
+      <c r="J19" s="6">
+        <v>3.3958333333333333E-2</v>
+      </c>
+      <c r="K19" s="6">
+        <v>3.9837962962962964E-2</v>
+      </c>
+      <c r="L19" s="6">
+        <v>3.0092592592592595E-4</v>
+      </c>
+      <c r="M19" s="6">
+        <v>2.6620370370370372E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I20" s="6">
+        <v>2.0833333333333333E-3</v>
+      </c>
+      <c r="J20" s="6">
+        <v>9.3749999999999997E-4</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1.3310185185185185E-3</v>
+      </c>
+      <c r="L20" s="6">
+        <v>7.7546296296296293E-4</v>
+      </c>
+      <c r="M20" s="6">
+        <v>8.6805555555555551E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I21" s="6">
+        <v>9.6064814814814819E-4</v>
+      </c>
+      <c r="J21" s="6">
+        <v>5.9027777777777778E-4</v>
+      </c>
+      <c r="K21" s="6">
+        <v>1.8981481481481482E-3</v>
+      </c>
+      <c r="L21" s="6">
+        <v>5.2083333333333333E-4</v>
+      </c>
+      <c r="M21" s="6">
+        <v>1.7361111111111112E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I22" s="6">
+        <v>6.3657407407407413E-4</v>
+      </c>
+      <c r="J22" s="6">
+        <v>4.1666666666666669E-4</v>
+      </c>
+      <c r="K22" s="6">
+        <v>8.1018518518518516E-4</v>
+      </c>
+      <c r="L22" s="6">
+        <v>4.2824074074074075E-4</v>
+      </c>
+      <c r="M22" s="6">
+        <v>2.3148148148148149E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I23" s="6">
+        <v>1.2268518518518518E-3</v>
+      </c>
+      <c r="J23" s="6">
+        <v>6.018518518518519E-4</v>
+      </c>
+      <c r="K23" s="6">
+        <v>1.0648148148148149E-3</v>
+      </c>
+      <c r="L23" s="6">
+        <v>4.7453703703703704E-4</v>
+      </c>
+      <c r="M23" s="6">
+        <v>3.0092592592592595E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I24" s="6">
+        <v>7.407407407407407E-4</v>
+      </c>
+      <c r="J24" s="6">
+        <v>1.3425925925925925E-3</v>
+      </c>
+      <c r="K24" s="6">
+        <v>1.4583333333333334E-3</v>
+      </c>
+      <c r="L24" s="6">
+        <v>8.7962962962962962E-4</v>
+      </c>
+      <c r="M24" s="6">
+        <v>5.3240740740740744E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I25" s="6">
+        <v>1.1805555555555556E-3</v>
+      </c>
+      <c r="J25" s="6">
+        <v>8.564814814814815E-4</v>
+      </c>
+      <c r="K25" s="6">
+        <v>9.6064814814814819E-4</v>
+      </c>
+      <c r="L25" s="6">
+        <v>6.134259259259259E-4</v>
+      </c>
+      <c r="M25" s="6">
+        <v>3.4722222222222224E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I26" s="6">
+        <v>2.1064814814814813E-3</v>
+      </c>
+      <c r="J26" s="6">
+        <v>8.2175925925925927E-4</v>
+      </c>
+      <c r="K26" s="6">
+        <v>9.2592592592592596E-4</v>
+      </c>
+      <c r="L26" s="6">
+        <v>6.4814814814814813E-4</v>
+      </c>
+      <c r="M26" s="6">
+        <v>4.6296296296296298E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I27" s="6">
+        <v>1.2847222222222223E-3</v>
+      </c>
+      <c r="J27" s="6">
+        <v>1.0532407407407407E-3</v>
+      </c>
+      <c r="K27" s="6">
+        <v>1.6319444444444445E-3</v>
+      </c>
+      <c r="L27" s="6">
+        <v>7.407407407407407E-4</v>
+      </c>
+      <c r="M27" s="6">
+        <v>4.0509259259259258E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I28" s="6">
+        <v>7.1759259259259259E-4</v>
+      </c>
+      <c r="J28" s="6">
+        <v>6.018518518518519E-4</v>
+      </c>
+      <c r="K28" s="6">
+        <v>1.0879629629629629E-3</v>
+      </c>
+      <c r="L28" s="6">
+        <v>3.4722222222222224E-4</v>
+      </c>
+      <c r="M28" s="6">
+        <v>3.0092592592592595E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFE074D-4E55-4137-BB6F-9C0899E4DD33}">
+  <dimension ref="A3:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>4</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>4</v>
-      </c>
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" t="s">
-        <v>4</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="27"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="30"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="30"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="30"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="30"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="30"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="30"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="30"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="28"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7B54A3-4DF0-4F4C-A178-66B5DA5A4DB7}">
+  <dimension ref="C3:N24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="T17" sqref="T17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="3:14" ht="93" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="14">
+        <v>45855.732557870368</v>
+      </c>
+      <c r="D5" s="15">
+        <v>3</v>
+      </c>
+      <c r="E5" s="15">
+        <v>4</v>
+      </c>
+      <c r="F5" s="15">
+        <v>5</v>
+      </c>
+      <c r="G5" s="15">
+        <v>5</v>
+      </c>
+      <c r="H5" s="15">
+        <v>4</v>
+      </c>
+      <c r="I5" s="15">
+        <v>3</v>
+      </c>
+      <c r="J5" s="15">
+        <v>5</v>
+      </c>
+      <c r="K5" s="15">
+        <v>3</v>
+      </c>
+      <c r="L5" s="15">
+        <v>4</v>
+      </c>
+      <c r="M5" s="15">
+        <v>5</v>
+      </c>
+      <c r="N5" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="17">
+        <v>45859.608483796299</v>
+      </c>
+      <c r="D6" s="18">
+        <v>4</v>
+      </c>
+      <c r="E6" s="18">
+        <v>5</v>
+      </c>
+      <c r="F6" s="18">
+        <v>4</v>
+      </c>
+      <c r="G6" s="18">
+        <v>4</v>
+      </c>
+      <c r="H6" s="18">
+        <v>4</v>
+      </c>
+      <c r="I6" s="18">
+        <v>5</v>
+      </c>
+      <c r="J6" s="18">
+        <v>5</v>
+      </c>
+      <c r="K6" s="18">
+        <v>4</v>
+      </c>
+      <c r="L6" s="18">
+        <v>4</v>
+      </c>
+      <c r="M6" s="18">
+        <v>5</v>
+      </c>
+      <c r="N6" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="14">
+        <v>45860.457638888889</v>
+      </c>
+      <c r="D7" s="15">
+        <v>5</v>
+      </c>
+      <c r="E7" s="15">
+        <v>5</v>
+      </c>
+      <c r="F7" s="15">
+        <v>4</v>
+      </c>
+      <c r="G7" s="15">
+        <v>5</v>
+      </c>
+      <c r="H7" s="15">
+        <v>5</v>
+      </c>
+      <c r="I7" s="15">
+        <v>5</v>
+      </c>
+      <c r="J7" s="15">
+        <v>5</v>
+      </c>
+      <c r="K7" s="15">
+        <v>5</v>
+      </c>
+      <c r="L7" s="15">
+        <v>5</v>
+      </c>
+      <c r="M7" s="15">
+        <v>5</v>
+      </c>
+      <c r="N7" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="17">
+        <v>45860.485277777778</v>
+      </c>
+      <c r="D8" s="18">
+        <v>4</v>
+      </c>
+      <c r="E8" s="18">
+        <v>5</v>
+      </c>
+      <c r="F8" s="18">
+        <v>5</v>
+      </c>
+      <c r="G8" s="18">
+        <v>5</v>
+      </c>
+      <c r="H8" s="18">
+        <v>5</v>
+      </c>
+      <c r="I8" s="18">
+        <v>5</v>
+      </c>
+      <c r="J8" s="18">
+        <v>5</v>
+      </c>
+      <c r="K8" s="18">
+        <v>5</v>
+      </c>
+      <c r="L8" s="18">
+        <v>5</v>
+      </c>
+      <c r="M8" s="18">
+        <v>5</v>
+      </c>
+      <c r="N8" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="14">
+        <v>45873.525648148148</v>
+      </c>
+      <c r="D9" s="15">
+        <v>5</v>
+      </c>
+      <c r="E9" s="15">
+        <v>5</v>
+      </c>
+      <c r="F9" s="15">
+        <v>4</v>
+      </c>
+      <c r="G9" s="15">
+        <v>5</v>
+      </c>
+      <c r="H9" s="15">
+        <v>5</v>
+      </c>
+      <c r="I9" s="15">
+        <v>5</v>
+      </c>
+      <c r="J9" s="15">
+        <v>5</v>
+      </c>
+      <c r="K9" s="15">
+        <v>5</v>
+      </c>
+      <c r="L9" s="15">
+        <v>4</v>
+      </c>
+      <c r="M9" s="15">
+        <v>5</v>
+      </c>
+      <c r="N9" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="17">
+        <v>45873.977442129632</v>
+      </c>
+      <c r="D10" s="18">
+        <v>5</v>
+      </c>
+      <c r="E10" s="18">
+        <v>5</v>
+      </c>
+      <c r="F10" s="18">
+        <v>4</v>
+      </c>
+      <c r="G10" s="18">
+        <v>5</v>
+      </c>
+      <c r="H10" s="18">
+        <v>5</v>
+      </c>
+      <c r="I10" s="18">
+        <v>5</v>
+      </c>
+      <c r="J10" s="18">
+        <v>5</v>
+      </c>
+      <c r="K10" s="18">
+        <v>5</v>
+      </c>
+      <c r="L10" s="18">
+        <v>4</v>
+      </c>
+      <c r="M10" s="18">
+        <v>5</v>
+      </c>
+      <c r="N10" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="14">
+        <v>45874.528414351851</v>
+      </c>
+      <c r="D11" s="15">
+        <v>5</v>
+      </c>
+      <c r="E11" s="15">
+        <v>5</v>
+      </c>
+      <c r="F11" s="15">
+        <v>5</v>
+      </c>
+      <c r="G11" s="15">
+        <v>5</v>
+      </c>
+      <c r="H11" s="15">
+        <v>5</v>
+      </c>
+      <c r="I11" s="15">
+        <v>5</v>
+      </c>
+      <c r="J11" s="15">
+        <v>5</v>
+      </c>
+      <c r="K11" s="15">
+        <v>5</v>
+      </c>
+      <c r="L11" s="15">
+        <v>5</v>
+      </c>
+      <c r="M11" s="15">
+        <v>5</v>
+      </c>
+      <c r="N11" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="17">
+        <v>45875.414259259262</v>
+      </c>
+      <c r="D12" s="18">
+        <v>5</v>
+      </c>
+      <c r="E12" s="18">
+        <v>5</v>
+      </c>
+      <c r="F12" s="18">
+        <v>5</v>
+      </c>
+      <c r="G12" s="18">
+        <v>5</v>
+      </c>
+      <c r="H12" s="18">
+        <v>5</v>
+      </c>
+      <c r="I12" s="18">
+        <v>3</v>
+      </c>
+      <c r="J12" s="18">
+        <v>5</v>
+      </c>
+      <c r="K12" s="18">
+        <v>5</v>
+      </c>
+      <c r="L12" s="18">
+        <v>5</v>
+      </c>
+      <c r="M12" s="18">
+        <v>5</v>
+      </c>
+      <c r="N12" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="14">
+        <v>45875.838622685187</v>
+      </c>
+      <c r="D13" s="15">
+        <v>4</v>
+      </c>
+      <c r="E13" s="15">
+        <v>4</v>
+      </c>
+      <c r="F13" s="15">
+        <v>4</v>
+      </c>
+      <c r="G13" s="15">
+        <v>5</v>
+      </c>
+      <c r="H13" s="15">
+        <v>4</v>
+      </c>
+      <c r="I13" s="15">
+        <v>3</v>
+      </c>
+      <c r="J13" s="15">
+        <v>3</v>
+      </c>
+      <c r="K13" s="15">
+        <v>4</v>
+      </c>
+      <c r="L13" s="15">
+        <v>5</v>
+      </c>
+      <c r="M13" s="15">
+        <v>5</v>
+      </c>
+      <c r="N13" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="17">
+        <v>45883.933217592596</v>
+      </c>
+      <c r="D14" s="18">
+        <v>4</v>
+      </c>
+      <c r="E14" s="18">
+        <v>4</v>
+      </c>
+      <c r="F14" s="18">
+        <v>5</v>
+      </c>
+      <c r="G14" s="18">
+        <v>4</v>
+      </c>
+      <c r="H14" s="18">
+        <v>5</v>
+      </c>
+      <c r="I14" s="18">
+        <v>3</v>
+      </c>
+      <c r="J14" s="18">
+        <v>5</v>
+      </c>
+      <c r="K14" s="18">
+        <v>4</v>
+      </c>
+      <c r="L14" s="18">
+        <v>5</v>
+      </c>
+      <c r="M14" s="18">
+        <v>4</v>
+      </c>
+      <c r="N14" s="19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="14">
+        <v>45898.685868055552</v>
+      </c>
+      <c r="D15" s="15">
+        <v>5</v>
+      </c>
+      <c r="E15" s="15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="15">
+        <v>4</v>
+      </c>
+      <c r="G15" s="15">
+        <v>5</v>
+      </c>
+      <c r="H15" s="15">
+        <v>5</v>
+      </c>
+      <c r="I15" s="15">
+        <v>4</v>
+      </c>
+      <c r="J15" s="15">
+        <v>5</v>
+      </c>
+      <c r="K15" s="15">
+        <v>5</v>
+      </c>
+      <c r="L15" s="15">
+        <v>5</v>
+      </c>
+      <c r="M15" s="15">
+        <v>5</v>
+      </c>
+      <c r="N15" s="16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="20">
+        <v>45918.993958333333</v>
+      </c>
+      <c r="D16" s="21">
+        <v>5</v>
+      </c>
+      <c r="E16" s="21">
+        <v>5</v>
+      </c>
+      <c r="F16" s="21">
+        <v>4</v>
+      </c>
+      <c r="G16" s="21">
+        <v>5</v>
+      </c>
+      <c r="H16" s="21">
+        <v>5</v>
+      </c>
+      <c r="I16" s="21">
+        <v>5</v>
+      </c>
+      <c r="J16" s="21">
+        <v>5</v>
+      </c>
+      <c r="K16" s="21">
+        <v>5</v>
+      </c>
+      <c r="L16" s="21">
+        <v>5</v>
+      </c>
+      <c r="M16" s="21">
+        <v>5</v>
+      </c>
+      <c r="N16" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="35"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+    </row>
+    <row r="18" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D18" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="N18" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="34">
+        <f>COUNTIF($D$5:$D$16,5)</f>
+        <v>7</v>
+      </c>
+      <c r="E19" s="34">
+        <f>COUNTIF(E5:E16,5)</f>
+        <v>9</v>
+      </c>
+      <c r="F19" s="34">
+        <f>COUNTIF(F5:F16,5)</f>
+        <v>5</v>
+      </c>
+      <c r="G19" s="34">
+        <f>COUNTIF(G5:G16,5)</f>
+        <v>10</v>
+      </c>
+      <c r="H19" s="34">
+        <f>COUNTIF(H5:H16,5)</f>
+        <v>9</v>
+      </c>
+      <c r="I19" s="34">
+        <f>COUNTIF(I5:I16,5)</f>
+        <v>7</v>
+      </c>
+      <c r="J19" s="34">
+        <f>COUNTIF(J5:J16,5)</f>
+        <v>11</v>
+      </c>
+      <c r="K19" s="34">
+        <f>COUNTIF(K5:K16,5)</f>
+        <v>8</v>
+      </c>
+      <c r="L19" s="34">
+        <f>COUNTIF(L5:L16,5)</f>
+        <v>8</v>
+      </c>
+      <c r="M19" s="34">
+        <f>COUNTIF(M5:M16,5)</f>
+        <v>11</v>
+      </c>
+      <c r="N19" s="34">
+        <f>COUNTIF(N5:N16,5)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <v>4</v>
+      </c>
+      <c r="D20" s="34">
+        <f>COUNTIF(D$5:D$16,4)</f>
+        <v>4</v>
+      </c>
+      <c r="E20" s="34">
+        <f t="shared" ref="E20:N20" si="0">COUNTIF(E$5:E$16,4)</f>
+        <v>3</v>
+      </c>
+      <c r="F20" s="34">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="G20" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="H20" s="34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I20" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="34">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="L20" s="34">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="M20" s="34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N20" s="34">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" s="34">
+        <f>COUNTIF(D$5:D$16,3)</f>
+        <v>1</v>
+      </c>
+      <c r="E21" s="34">
+        <f t="shared" ref="E21:N21" si="1">COUNTIF(E$5:E$16,3)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="34">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="J21" s="34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K21" s="34">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L21" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="34">
+        <f>COUNTIF(D$5:D$16,2)</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="34">
+        <f t="shared" ref="E22:N22" si="2">COUNTIF(E$5:E$16,2)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" s="34">
+        <f>COUNTIF(D$5:D$16,1)</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="34">
+        <f t="shared" ref="E23:N23" si="3">COUNTIF(E$5:E$16,1)</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="34">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <f>SUM(D19:D23)</f>
+        <v>12</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:N24" si="4">SUM(E19:E23)</f>
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Tests.xlsx
+++ b/Tests.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcmac\Desktop\Thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B53320C8-8D46-43F9-89D5-B6DF7C943917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEE1D50-D45E-4189-99EF-958AD84AF18F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{1E690014-ECB0-4FE1-9E63-8E2042EBCF79}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E690014-ECB0-4FE1-9E63-8E2042EBCF79}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -792,10 +792,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="22" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2529,7 +2529,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F9E6230-5F57-4B38-B722-F107B64AEB27}" name="PivotTable3" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F9E6230-5F57-4B38-B722-F107B64AEB27}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="12">
     <pivotField numFmtId="22" showAll="0"/>
@@ -2876,8 +2876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A53E6D6-4DCB-40B5-8D29-E7E2A94E5120}">
   <dimension ref="B3:P28"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3719,7 +3719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7B54A3-4DF0-4F4C-A178-66B5DA5A4DB7}">
   <dimension ref="C3:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
@@ -4281,43 +4281,43 @@
         <v>7</v>
       </c>
       <c r="E19" s="34">
-        <f>COUNTIF(E5:E16,5)</f>
+        <f t="shared" ref="E19:N19" si="0">COUNTIF(E5:E16,5)</f>
         <v>9</v>
       </c>
       <c r="F19" s="34">
-        <f>COUNTIF(F5:F16,5)</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G19" s="34">
-        <f>COUNTIF(G5:G16,5)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H19" s="34">
-        <f>COUNTIF(H5:H16,5)</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I19" s="34">
-        <f>COUNTIF(I5:I16,5)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="J19" s="34">
-        <f>COUNTIF(J5:J16,5)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="K19" s="34">
-        <f>COUNTIF(K5:K16,5)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="L19" s="34">
-        <f>COUNTIF(L5:L16,5)</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="M19" s="34">
-        <f>COUNTIF(M5:M16,5)</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="N19" s="34">
-        <f>COUNTIF(N5:N16,5)</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
@@ -4330,43 +4330,43 @@
         <v>4</v>
       </c>
       <c r="E20" s="34">
-        <f t="shared" ref="E20:N20" si="0">COUNTIF(E$5:E$16,4)</f>
+        <f t="shared" ref="E20:N20" si="1">COUNTIF(E$5:E$16,4)</f>
         <v>3</v>
       </c>
       <c r="F20" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="G20" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H20" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I20" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="J20" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K20" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="L20" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="M20" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N20" s="34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -4379,43 +4379,43 @@
         <v>1</v>
       </c>
       <c r="E21" s="34">
-        <f t="shared" ref="E21:N21" si="1">COUNTIF(E$5:E$16,3)</f>
+        <f t="shared" ref="E21:N21" si="2">COUNTIF(E$5:E$16,3)</f>
         <v>0</v>
       </c>
       <c r="F21" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G21" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H21" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I21" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="J21" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="K21" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L21" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M21" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N21" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -4428,43 +4428,43 @@
         <v>0</v>
       </c>
       <c r="E22" s="34">
-        <f t="shared" ref="E22:N22" si="2">COUNTIF(E$5:E$16,2)</f>
+        <f t="shared" ref="E22:N22" si="3">COUNTIF(E$5:E$16,2)</f>
         <v>0</v>
       </c>
       <c r="F22" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G22" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H22" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I22" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J22" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K22" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L22" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M22" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="N22" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4477,43 +4477,43 @@
         <v>0</v>
       </c>
       <c r="E23" s="34">
-        <f t="shared" ref="E23:N23" si="3">COUNTIF(E$5:E$16,1)</f>
+        <f t="shared" ref="E23:N23" si="4">COUNTIF(E$5:E$16,1)</f>
         <v>0</v>
       </c>
       <c r="F23" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G23" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H23" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I23" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J23" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K23" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="L23" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M23" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N23" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -4523,43 +4523,43 @@
         <v>12</v>
       </c>
       <c r="E24">
-        <f t="shared" ref="E24:N24" si="4">SUM(E19:E23)</f>
+        <f t="shared" ref="E24:N24" si="5">SUM(E19:E23)</f>
         <v>12</v>
       </c>
       <c r="F24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="G24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="H24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="I24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="J24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="K24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="L24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="M24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
       <c r="N24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>12</v>
       </c>
     </row>
